--- a/output/fit_clients/fit_round_219.xlsx
+++ b/output/fit_clients/fit_round_219.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1836970280.281142</v>
+        <v>2226117578.136846</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08632539261249771</v>
+        <v>0.07810362381795501</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03981418582398676</v>
+        <v>0.02937203159613388</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>918485113.8186592</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2512920508.445238</v>
+        <v>1632558892.449122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1785498313776614</v>
+        <v>0.127932006055749</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03151492928775753</v>
+        <v>0.03631021556850465</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1256460373.702691</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4763454296.01749</v>
+        <v>4677588669.65029</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1416341057628072</v>
+        <v>0.1220433777659316</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02346621383646689</v>
+        <v>0.03245713831924576</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>79</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2381727216.262266</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2775742098.72296</v>
+        <v>3878038283.938163</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08069938053965554</v>
+        <v>0.07872536379936511</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05074442910069691</v>
+        <v>0.04377066487166328</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>83</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1387871134.05733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2142742635.313011</v>
+        <v>2408370960.288252</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1119132964165985</v>
+        <v>0.1248544765056211</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05407797192142888</v>
+        <v>0.04353897910671572</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1071371331.783946</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2338665934.074838</v>
+        <v>2393265929.746383</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06385415422487856</v>
+        <v>0.06587349849153568</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04102744357901566</v>
+        <v>0.0426515976860611</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>67</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1169332995.551184</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3360230043.426404</v>
+        <v>3724989631.855351</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2073313599394981</v>
+        <v>0.1885252585001489</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02496812775821446</v>
+        <v>0.03190055139457398</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>70</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1680115116.039051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1899828383.852661</v>
+        <v>2156719142.454674</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1889557183142317</v>
+        <v>0.1718961942572877</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03019686872903646</v>
+        <v>0.02922693198348366</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>949914232.427898</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3727498049.604354</v>
+        <v>4815093625.073352</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1409318912324935</v>
+        <v>0.1730885343375461</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03831388335666937</v>
+        <v>0.05399811146808891</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>92</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1863749025.552336</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2846144473.773792</v>
+        <v>2715062566.177948</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1507410472631918</v>
+        <v>0.1602961544398338</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04770328353386998</v>
+        <v>0.04142223535791556</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>90</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1423072169.057527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2126640780.422057</v>
+        <v>3101645184.022098</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1401321872891133</v>
+        <v>0.1561091064448107</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03895644527646176</v>
+        <v>0.04549200112007595</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>76</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1063320328.232981</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4397471917.387693</v>
+        <v>4835815230.8521</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07275218145350482</v>
+        <v>0.08150103511631147</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02815274498731386</v>
+        <v>0.02534423423044085</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>73</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2198735993.418219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2367294604.843382</v>
+        <v>3881277064.850379</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1161672696028502</v>
+        <v>0.1754905960515699</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04422368029361606</v>
+        <v>0.04261851050134762</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>70</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1183647382.647638</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1457074209.931284</v>
+        <v>1338203566.078813</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0822308414052753</v>
+        <v>0.09793666271860785</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04433735105237768</v>
+        <v>0.03201505563973374</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>728537180.7179515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2871535746.944044</v>
+        <v>1803217263.597729</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09159422541487515</v>
+        <v>0.07735980876050098</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04685134959858611</v>
+        <v>0.0484844772580133</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>37</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1435767871.075737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4028161684.616521</v>
+        <v>4804447283.520459</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1489200358197673</v>
+        <v>0.133126129821302</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04501912644747012</v>
+        <v>0.03879595083252923</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>64</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2014080875.523334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4000590108.923097</v>
+        <v>3955306332.903974</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1554854559768218</v>
+        <v>0.1796212450919436</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02737441035324213</v>
+        <v>0.02090416767979925</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>72</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2000295012.239018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1171747816.001541</v>
+        <v>856540869.0984924</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1674571732633827</v>
+        <v>0.1492655721358561</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01728496629989656</v>
+        <v>0.02174724563631916</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>585873979.0199373</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2454119916.927507</v>
+        <v>2186935549.444098</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1179071103096011</v>
+        <v>0.1231655799032057</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02070338967015505</v>
+        <v>0.03178039679917839</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1227059936.437607</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1657839450.941398</v>
+        <v>2346485071.124175</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09033745447984323</v>
+        <v>0.07303723376810889</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02968695757760109</v>
+        <v>0.03509672914234541</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>828919794.1463624</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3508081116.939489</v>
+        <v>2857347847.818017</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1323637782007485</v>
+        <v>0.1411762160431335</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04205627387736131</v>
+        <v>0.0492098311266185</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>62</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1754040589.560105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1529480615.385328</v>
+        <v>1353478672.855976</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1595117151151589</v>
+        <v>0.1504527526389375</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04973915193824414</v>
+        <v>0.04455480662169353</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>764740288.6473722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2967997093.985369</v>
+        <v>2663481106.178249</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1328758937959189</v>
+        <v>0.125401081838998</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03037832148117166</v>
+        <v>0.02751648282665135</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>64</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1483998584.376079</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1410176598.365088</v>
+        <v>1407303633.43405</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07394748601044729</v>
+        <v>0.08551062196497697</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02748550723768506</v>
+        <v>0.02103204227444343</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>705088268.7865659</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1047311584.985142</v>
+        <v>1059835731.274747</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1185735410730962</v>
+        <v>0.07900501042777826</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03106349950609963</v>
+        <v>0.02632357733898703</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>523655776.1928735</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4267845571.46169</v>
+        <v>3581062462.91707</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1563696119177617</v>
+        <v>0.1315723086279406</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02682927206751318</v>
+        <v>0.01781262497246378</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>50</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2133922782.562505</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3089167433.120687</v>
+        <v>3832712316.235146</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1060813340217206</v>
+        <v>0.1129421524867012</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0464142237431214</v>
+        <v>0.05025984546350342</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>71</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1544583735.535053</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5071584333.763451</v>
+        <v>5693617333.39021</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1201467981750655</v>
+        <v>0.1119513438592729</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02905307859537956</v>
+        <v>0.03154933331287796</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>97</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2535792109.470677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1479939575.626953</v>
+        <v>1461853649.278664</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1026090973908241</v>
+        <v>0.1325100548252335</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0375093499757292</v>
+        <v>0.03867790922692204</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>739969766.0264646</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1158248262.407119</v>
+        <v>1072321278.336527</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1010455345435918</v>
+        <v>0.07289524121011036</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03629828153507493</v>
+        <v>0.0439544784027213</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>579124092.4879187</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1739971552.968598</v>
+        <v>1332579769.683541</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09547991809547764</v>
+        <v>0.1099954526815015</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03650448590349323</v>
+        <v>0.03639924311714163</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>869985894.5328616</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2255153828.55646</v>
+        <v>2389019089.890504</v>
       </c>
       <c r="F33" t="n">
-        <v>0.143294899908386</v>
+        <v>0.1683158409103669</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04250544883673477</v>
+        <v>0.0457836506973797</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>64</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1127576973.325812</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1351520856.571992</v>
+        <v>1193415443.16643</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07974127672097557</v>
+        <v>0.08026189508898304</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02757910609112807</v>
+        <v>0.02623012542796327</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>675760408.460272</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1154373369.07735</v>
+        <v>1132224316.289414</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1115448007834818</v>
+        <v>0.1106378687507404</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04085653766308565</v>
+        <v>0.02786892925181565</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>577186669.2433411</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2971910502.357438</v>
+        <v>2008382908.121254</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1125349453291341</v>
+        <v>0.1424140326302313</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02786266667470898</v>
+        <v>0.02066620708851596</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>55</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1485955235.351064</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1911408341.570139</v>
+        <v>2582149250.331353</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07643054957384628</v>
+        <v>0.1056755458794163</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0405163710511726</v>
+        <v>0.0318723299120092</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>57</v>
-      </c>
-      <c r="J37" t="n">
-        <v>955704185.8738045</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1763646907.549275</v>
+        <v>2015517726.16264</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1200108534574717</v>
+        <v>0.1083514820425713</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03684247746738999</v>
+        <v>0.0313459826761953</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>881823465.7735571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1935389521.815057</v>
+        <v>1729702168.508924</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1870367378437736</v>
+        <v>0.188069638111637</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03317769390842044</v>
+        <v>0.03172554243131755</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>967694765.2249845</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1665838150.05662</v>
+        <v>1364833207.856597</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1479197782903715</v>
+        <v>0.1131805023599795</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04804722940123268</v>
+        <v>0.05655319787593821</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>832918999.6940186</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2060426604.685989</v>
+        <v>2878366661.045359</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1443437147307725</v>
+        <v>0.1592207704539902</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0332398931392679</v>
+        <v>0.03205770812535199</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1030213370.639164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4316134631.503184</v>
+        <v>3384872134.433937</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07785794794659845</v>
+        <v>0.1193877186491282</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03522842049862747</v>
+        <v>0.03303781178667907</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2158067366.785314</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2421139457.527692</v>
+        <v>2431906837.83792</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1800089661726162</v>
+        <v>0.1717218736195309</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01790098863593082</v>
+        <v>0.01726594191992543</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>76</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1210569785.322926</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2182782494.455484</v>
+        <v>1987395044.399652</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07659956921629528</v>
+        <v>0.06240977283691327</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03043748971523469</v>
+        <v>0.0306757415778615</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1091391390.021585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1971378442.011854</v>
+        <v>2107221915.48111</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1530198384925845</v>
+        <v>0.1221680428810182</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05043785122215751</v>
+        <v>0.0505730912712511</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>985689209.0040638</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4973670861.869152</v>
+        <v>5179609652.578376</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1110903519469566</v>
+        <v>0.1692032719955349</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04487579863087576</v>
+        <v>0.03785597842503464</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>78</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2486835456.196946</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5055682854.717768</v>
+        <v>4109035519.490126</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1377705340521982</v>
+        <v>0.1373493986493533</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0542492053021165</v>
+        <v>0.05034064363532778</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>59</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2527841486.284101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2862952636.623522</v>
+        <v>3998021629.706151</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1062895213990078</v>
+        <v>0.09036047273201567</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03287598332913456</v>
+        <v>0.03074211422257139</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1431476418.74174</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1343281866.460533</v>
+        <v>1481114922.26517</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1305930705232783</v>
+        <v>0.1649319428518607</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04108532049475611</v>
+        <v>0.03423910011378938</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>671640989.5953459</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3949401880.716004</v>
+        <v>4229456498.999113</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1537520869522248</v>
+        <v>0.1353125327696089</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05112935629752886</v>
+        <v>0.0333419422568942</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>75</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1974700932.632393</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1267800678.164288</v>
+        <v>1284651494.775717</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1877104004568197</v>
+        <v>0.153413835197129</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05161984179927768</v>
+        <v>0.05259164853106907</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>633900379.6354073</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3572908816.218017</v>
+        <v>3745758281.148046</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0861903620214407</v>
+        <v>0.1320767707778084</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05864295325613043</v>
+        <v>0.03827780696828836</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>90</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1786454489.710352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3580918077.014495</v>
+        <v>3080343931.822567</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1598170975674561</v>
+        <v>0.1486952144637374</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02773828677043169</v>
+        <v>0.03089878597497178</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>62</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1790459030.78544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3055681536.365363</v>
+        <v>3389355216.470651</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1467464296676281</v>
+        <v>0.1464356385095355</v>
       </c>
       <c r="G54" t="n">
-        <v>0.049908650379792</v>
+        <v>0.04338891898802279</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>71</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1527840758.06614</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4102320596.6498</v>
+        <v>4317844149.739116</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1552224535573338</v>
+        <v>0.1701964524263799</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01997945316236167</v>
+        <v>0.02565983768491524</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2051160277.761363</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1662962411.711231</v>
+        <v>1798237997.640112</v>
       </c>
       <c r="F56" t="n">
-        <v>0.112805132353095</v>
+        <v>0.1021086227345892</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04471455141824682</v>
+        <v>0.05633484646559045</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>831481223.9627903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3803962516.740841</v>
+        <v>3639553271.469613</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1380422946721979</v>
+        <v>0.1134788543330316</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02033679239684317</v>
+        <v>0.02334603189410297</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>70</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1901981330.268563</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1420417154.178426</v>
+        <v>1277670946.38578</v>
       </c>
       <c r="F58" t="n">
-        <v>0.142169641110617</v>
+        <v>0.1281888707554433</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0284805045525683</v>
+        <v>0.03014693773548515</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>710208615.4823738</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4775361403.367915</v>
+        <v>4388439183.267207</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1309851902881631</v>
+        <v>0.09977025161926652</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03203061826295726</v>
+        <v>0.04288935798509703</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>59</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2387680640.214675</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3594071825.547265</v>
+        <v>2750128465.991756</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1696237972801213</v>
+        <v>0.1291974262846814</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03094238426801075</v>
+        <v>0.03226255995569545</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1797036045.422415</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2050991604.798496</v>
+        <v>3293279188.029213</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1481109259461863</v>
+        <v>0.1357088823330204</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02878249233200886</v>
+        <v>0.03034369681290066</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>76</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1025495872.345021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1328840140.295367</v>
+        <v>1727358554.127924</v>
       </c>
       <c r="F62" t="n">
-        <v>0.14680705615289</v>
+        <v>0.1418733017379748</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04051140176241674</v>
+        <v>0.03724413032762594</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>664420027.5056393</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4161365027.167</v>
+        <v>5073076034.74684</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06515740250746795</v>
+        <v>0.07314002313105269</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03679085923529653</v>
+        <v>0.04773091258626387</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>63</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2080682568.74641</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4903154873.129601</v>
+        <v>5343137007.811701</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1904987997522675</v>
+        <v>0.1475033535664205</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02719989789940362</v>
+        <v>0.02347450610522703</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>68</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2451577535.93451</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5270447894.44124</v>
+        <v>4113902727.501055</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1338315113261457</v>
+        <v>0.1303685584331561</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02139623000158127</v>
+        <v>0.02188198742206949</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>78</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2635223889.965201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5213323216.131715</v>
+        <v>3962704097.104092</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1409862231566333</v>
+        <v>0.1628861517272769</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04521267351641293</v>
+        <v>0.04480825470531461</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>64</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2606661646.644077</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2354895829.521036</v>
+        <v>2803328733.153325</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08528710914509244</v>
+        <v>0.07549870297755464</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03141963062421496</v>
+        <v>0.04107582659443577</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>71</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1177447987.627404</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5765255985.242366</v>
+        <v>4505452405.778352</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1056907950424836</v>
+        <v>0.133169314520739</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03859417750600522</v>
+        <v>0.03425532344099811</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2882628095.365498</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1716143897.775418</v>
+        <v>2475903332.995419</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1352563603220089</v>
+        <v>0.1412670921990868</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04416100710038497</v>
+        <v>0.05246559886834638</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>858071917.1266092</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2689120682.058599</v>
+        <v>2828620025.131237</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08374555354960091</v>
+        <v>0.07375334867151591</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03251708858550719</v>
+        <v>0.03701149522975931</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>62</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1344560297.838351</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5185805379.715937</v>
+        <v>4990563860.693776</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1313975090179067</v>
+        <v>0.1860709057655553</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02261165143718884</v>
+        <v>0.03411054695549318</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>80</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2592902809.39714</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1826438267.329021</v>
+        <v>1923101138.711814</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07703905249160875</v>
+        <v>0.09352281756848148</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03300271733793227</v>
+        <v>0.04179920961337823</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>913219107.9981723</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3364280955.733112</v>
+        <v>2869831002.381913</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1065765994401895</v>
+        <v>0.09656767007548031</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05100159692396179</v>
+        <v>0.03754759953453121</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>84</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1682140440.470898</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2767871371.885797</v>
+        <v>3524224281.123699</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1451506526374809</v>
+        <v>0.1533058279502271</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03126178640277105</v>
+        <v>0.024038156593121</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>74</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1383935771.407504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1606951659.511644</v>
+        <v>1839727100.021785</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1526301429596289</v>
+        <v>0.1163994915632716</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02948526864447548</v>
+        <v>0.02765141815021591</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>803475830.7737141</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4550059734.839797</v>
+        <v>4009401030.437002</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08918426462653264</v>
+        <v>0.08968576898971892</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03233758489230983</v>
+        <v>0.02221373096449868</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2275029875.202297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2046872192.736436</v>
+        <v>1397510752.451619</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1592244031134399</v>
+        <v>0.1515257278776106</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03054207322807191</v>
+        <v>0.03065070094498556</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1023436164.774169</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4081682162.489485</v>
+        <v>4751520235.89746</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1098954054328012</v>
+        <v>0.119437082916231</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04381077581316522</v>
+        <v>0.04979771780899762</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>77</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2040841041.131927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1450356607.227026</v>
+        <v>1421511872.512355</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1286563986033911</v>
+        <v>0.1742964690896645</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02932480967068705</v>
+        <v>0.02478999814375805</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>725178329.1345078</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3973117710.379511</v>
+        <v>4499271606.054006</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1113434590720775</v>
+        <v>0.07656357258236475</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0322985764425109</v>
+        <v>0.03724367950799252</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>46</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1986558853.307776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5208892310.182463</v>
+        <v>3730569706.484184</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1324322852098516</v>
+        <v>0.104737747341413</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03278318807388494</v>
+        <v>0.02894430070280183</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2604446163.180147</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3736839209.351186</v>
+        <v>3450892678.890373</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1755156186289336</v>
+        <v>0.1778839507877205</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01941794241637622</v>
+        <v>0.02392803903104054</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1868419659.103338</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2098906217.41601</v>
+        <v>1635183684.845432</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1027293583522727</v>
+        <v>0.1449658644991248</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03831423778867045</v>
+        <v>0.04341669726210069</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1049453106.315425</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2546032842.252499</v>
+        <v>2242792673.80672</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1175123663453826</v>
+        <v>0.1052384160578654</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03587235719985818</v>
+        <v>0.03482700674164138</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1273016346.125725</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2588630768.927766</v>
+        <v>3213266919.601677</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1330010585674944</v>
+        <v>0.1402345351737573</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0545118659270705</v>
+        <v>0.03561610396376495</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>83</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1294315399.175582</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2785438404.200447</v>
+        <v>2339478707.565091</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1287345327545406</v>
+        <v>0.1483868665865236</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02533277862028072</v>
+        <v>0.01687857346880805</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>28</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1392719338.931203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1165393997.460158</v>
+        <v>1287088652.249951</v>
       </c>
       <c r="F87" t="n">
-        <v>0.177041854300408</v>
+        <v>0.1252943456829053</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03563988665751318</v>
+        <v>0.02853809348957941</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>582697045.4232594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3325160176.461053</v>
+        <v>2258518826.268271</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1504859608607703</v>
+        <v>0.1318385681251955</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02974178709602986</v>
+        <v>0.0271239498304943</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>86</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1662580150.804066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2117120867.387534</v>
+        <v>2415014487.103603</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1414405414748071</v>
+        <v>0.1139128272475192</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02718176636403095</v>
+        <v>0.03783931989921148</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1058560536.500573</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1697785445.106649</v>
+        <v>2119970892.498356</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1041082753578131</v>
+        <v>0.08344600180544534</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0356891212131155</v>
+        <v>0.03413372369460938</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>848892737.4987582</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2032622582.960584</v>
+        <v>1825068699.866516</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1561035764079695</v>
+        <v>0.1430991653808359</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04479581653029988</v>
+        <v>0.04948865475456374</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1016311259.367634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2818420420.736999</v>
+        <v>2274255942.084963</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09116149280748061</v>
+        <v>0.07340387952575086</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03015706650449604</v>
+        <v>0.04677091981630663</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>55</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1409210218.399991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3508088485.713895</v>
+        <v>4778193306.413102</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09498132141837559</v>
+        <v>0.08630675724353946</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0473133993656232</v>
+        <v>0.03987631470494789</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>69</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1754044275.245402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2493565567.164894</v>
+        <v>2023320495.132591</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1080537387933704</v>
+        <v>0.1517045194622264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04324167436777974</v>
+        <v>0.02983154122583209</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1246782846.150661</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3160232705.944624</v>
+        <v>2566248136.197393</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09710220517465798</v>
+        <v>0.102553522058158</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05008192974350615</v>
+        <v>0.03937158846383996</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>53</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1580116341.013792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1734097613.867675</v>
+        <v>1911187879.251478</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1296764293038143</v>
+        <v>0.1156554207370953</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04310662060617203</v>
+        <v>0.03262730134944087</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>867048822.2833723</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3388809984.919243</v>
+        <v>4515138181.415604</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1662599441888997</v>
+        <v>0.1294315558645411</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02247197686962704</v>
+        <v>0.0281570753624848</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1694404999.673706</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2893412453.489723</v>
+        <v>3082373476.513247</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08461497538382837</v>
+        <v>0.1054902641743583</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02388083740893582</v>
+        <v>0.0263410127537016</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>57</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1446706204.2196</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2581494292.93039</v>
+        <v>2256373274.384075</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1426721406796973</v>
+        <v>0.1459089020519678</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02220596859010287</v>
+        <v>0.02435800564776021</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>68</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1290747102.06886</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2919184491.135756</v>
+        <v>3276310461.718769</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1105670292509576</v>
+        <v>0.1242134556234118</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02319386023484565</v>
+        <v>0.01732711946606295</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>69</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1459592229.941311</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3580548230.473289</v>
+        <v>3587188158.681281</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1361846327766849</v>
+        <v>0.1459041101543163</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05170663596838972</v>
+        <v>0.04279129394037492</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>89</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1790274280.976322</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_219.xlsx
+++ b/output/fit_clients/fit_round_219.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2226117578.136846</v>
+        <v>2469659652.785418</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07810362381795501</v>
+        <v>0.07909556019656667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02937203159613388</v>
+        <v>0.03763838989587929</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1632558892.449122</v>
+        <v>1756940277.453735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.127932006055749</v>
+        <v>0.1671198556369753</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03631021556850465</v>
+        <v>0.03461134688216579</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4677588669.65029</v>
+        <v>4833054255.4629</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1220433777659316</v>
+        <v>0.1246136331789871</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03245713831924576</v>
+        <v>0.02783425334503671</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3878038283.938163</v>
+        <v>4096564639.180418</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07872536379936511</v>
+        <v>0.1042911813810973</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04377066487166328</v>
+        <v>0.03710040402981366</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2408370960.288252</v>
+        <v>2455839789.800133</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1248544765056211</v>
+        <v>0.1213254268243967</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04353897910671572</v>
+        <v>0.05299023573227486</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2393265929.746383</v>
+        <v>2048775394.00301</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06587349849153568</v>
+        <v>0.09937217227996434</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0426515976860611</v>
+        <v>0.03696597057030163</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3724989631.855351</v>
+        <v>3592237913.196385</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1885252585001489</v>
+        <v>0.206973406378528</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03190055139457398</v>
+        <v>0.02722023805596418</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2156719142.454674</v>
+        <v>1875273128.72709</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1718961942572877</v>
+        <v>0.1510262392029149</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02922693198348366</v>
+        <v>0.03676144193668834</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4815093625.073352</v>
+        <v>4945406672.642556</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1730885343375461</v>
+        <v>0.1651283431046326</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05399811146808891</v>
+        <v>0.04145747063480291</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2715062566.177948</v>
+        <v>4068344052.071678</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1602961544398338</v>
+        <v>0.185212199685636</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04142223535791556</v>
+        <v>0.04044256284305291</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3101645184.022098</v>
+        <v>2349041952.571779</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1561091064448107</v>
+        <v>0.1586739203092498</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04549200112007595</v>
+        <v>0.05316987682443517</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4835815230.8521</v>
+        <v>3434929603.330617</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08150103511631147</v>
+        <v>0.09876679510910083</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02534423423044085</v>
+        <v>0.02670404517015157</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3881277064.850379</v>
+        <v>3021446144.825996</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1754905960515699</v>
+        <v>0.1368503570610023</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04261851050134762</v>
+        <v>0.03136351933312564</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1338203566.078813</v>
+        <v>1217316068.073306</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09793666271860785</v>
+        <v>0.08163682365143921</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03201505563973374</v>
+        <v>0.04605220665200389</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1803217263.597729</v>
+        <v>2026905120.47488</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07735980876050098</v>
+        <v>0.10354735065282</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0484844772580133</v>
+        <v>0.04919741012694997</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4804447283.520459</v>
+        <v>5133842645.44996</v>
       </c>
       <c r="F17" t="n">
-        <v>0.133126129821302</v>
+        <v>0.1130146594425117</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03879595083252923</v>
+        <v>0.04971269713741387</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3955306332.903974</v>
+        <v>2702463114.008986</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1796212450919436</v>
+        <v>0.1827111416312529</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02090416767979925</v>
+        <v>0.02557477891128144</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>856540869.0984924</v>
+        <v>1183476417.336342</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1492655721358561</v>
+        <v>0.1474732962840809</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02174724563631916</v>
+        <v>0.01670570998052466</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2186935549.444098</v>
+        <v>2124447303.435714</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1231655799032057</v>
+        <v>0.1176342325689602</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03178039679917839</v>
+        <v>0.0214030746557556</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2346485071.124175</v>
+        <v>2460274485.24203</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07303723376810889</v>
+        <v>0.07039406573771434</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03509672914234541</v>
+        <v>0.04005421768574117</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2857347847.818017</v>
+        <v>3320568145.963449</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1411762160431335</v>
+        <v>0.1382659905911312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0492098311266185</v>
+        <v>0.05232273623790304</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1353478672.855976</v>
+        <v>1294674935.108588</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1504527526389375</v>
+        <v>0.1384755270816369</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04455480662169353</v>
+        <v>0.04223553992349668</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2663481106.178249</v>
+        <v>2929231333.745441</v>
       </c>
       <c r="F24" t="n">
-        <v>0.125401081838998</v>
+        <v>0.1448839569569687</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02751648282665135</v>
+        <v>0.03542664166196254</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1407303633.43405</v>
+        <v>910325266.2451876</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08551062196497697</v>
+        <v>0.09469406751199939</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02103204227444343</v>
+        <v>0.02939644101122284</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1059835731.274747</v>
+        <v>1078545632.554433</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07900501042777826</v>
+        <v>0.1201488478875239</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02632357733898703</v>
+        <v>0.03847602565758842</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3581062462.91707</v>
+        <v>3987614402.155149</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1315723086279406</v>
+        <v>0.1566469524511147</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01781262497246378</v>
+        <v>0.01777223754324652</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3832712316.235146</v>
+        <v>3732722092.374175</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1129421524867012</v>
+        <v>0.139495676793606</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05025984546350342</v>
+        <v>0.03140426474539305</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5693617333.39021</v>
+        <v>4498562529.774017</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1119513438592729</v>
+        <v>0.1252367075643383</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03154933331287796</v>
+        <v>0.02982602401123768</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1461853649.278664</v>
+        <v>1522067038.860071</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1325100548252335</v>
+        <v>0.101668763833035</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03867790922692204</v>
+        <v>0.02564014713578435</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1072321278.336527</v>
+        <v>1184037648.980334</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07289524121011036</v>
+        <v>0.101901350510325</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0439544784027213</v>
+        <v>0.0347212064048261</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1332579769.683541</v>
+        <v>1723028552.723803</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1099954526815015</v>
+        <v>0.1183147365043791</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03639924311714163</v>
+        <v>0.02758742033522762</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2389019089.890504</v>
+        <v>2967752222.705025</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1683158409103669</v>
+        <v>0.1697033219912623</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0457836506973797</v>
+        <v>0.04553167423684668</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1193415443.16643</v>
+        <v>1198001296.672387</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08026189508898304</v>
+        <v>0.07448621175176995</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02623012542796327</v>
+        <v>0.01840735676899486</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1132224316.289414</v>
+        <v>1329063385.8446</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1106378687507404</v>
+        <v>0.1103858661045438</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02786892925181565</v>
+        <v>0.04325936918543262</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2008382908.121254</v>
+        <v>2320733171.442815</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1424140326302313</v>
+        <v>0.1789062797480837</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02066620708851596</v>
+        <v>0.02711365759492575</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2582149250.331353</v>
+        <v>2467959119.653077</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1056755458794163</v>
+        <v>0.07300321119282308</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0318723299120092</v>
+        <v>0.04137176743623894</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2015517726.16264</v>
+        <v>1538898720.39388</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1083514820425713</v>
+        <v>0.1194457031544298</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0313459826761953</v>
+        <v>0.02786944674562191</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1729702168.508924</v>
+        <v>1928472192.881755</v>
       </c>
       <c r="F39" t="n">
-        <v>0.188069638111637</v>
+        <v>0.1372268715503363</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03172554243131755</v>
+        <v>0.02059244888596751</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1364833207.856597</v>
+        <v>1341795936.644103</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1131805023599795</v>
+        <v>0.1396066652540933</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05655319787593821</v>
+        <v>0.04222103888386242</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2878366661.045359</v>
+        <v>1855064852.606236</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1592207704539902</v>
+        <v>0.1410691175408487</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03205770812535199</v>
+        <v>0.03911710891800078</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3384872134.433937</v>
+        <v>3203057062.445825</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1193877186491282</v>
+        <v>0.09269723967834673</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03303781178667907</v>
+        <v>0.03926813445786173</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2431906837.83792</v>
+        <v>2582499213.731129</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1717218736195309</v>
+        <v>0.176253255233894</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01726594191992543</v>
+        <v>0.01565208009290268</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1987395044.399652</v>
+        <v>1835836331.172448</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06240977283691327</v>
+        <v>0.1017997942284907</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0306757415778615</v>
+        <v>0.02685096949033806</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2107221915.48111</v>
+        <v>1983237679.258566</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1221680428810182</v>
+        <v>0.1459248847262614</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0505730912712511</v>
+        <v>0.04268572401287265</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5179609652.578376</v>
+        <v>5374934019.51789</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1692032719955349</v>
+        <v>0.1735675625539506</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03785597842503464</v>
+        <v>0.05715475140918229</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4109035519.490126</v>
+        <v>4340249775.801802</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1373493986493533</v>
+        <v>0.127087959677347</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05034064363532778</v>
+        <v>0.04448833585619951</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3998021629.706151</v>
+        <v>4593180438.185925</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09036047273201567</v>
+        <v>0.08613373470411681</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03074211422257139</v>
+        <v>0.02979218804092629</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1481114922.26517</v>
+        <v>1288738850.523732</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1649319428518607</v>
+        <v>0.1673939543661508</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03423910011378938</v>
+        <v>0.03158850042431549</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4229456498.999113</v>
+        <v>2637399089.125641</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1353125327696089</v>
+        <v>0.1405720864496026</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0333419422568942</v>
+        <v>0.05080225919425461</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1284651494.775717</v>
+        <v>1354339979.072057</v>
       </c>
       <c r="F51" t="n">
-        <v>0.153413835197129</v>
+        <v>0.1724383174573355</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05259164853106907</v>
+        <v>0.04403429832552268</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3745758281.148046</v>
+        <v>3524260780.224733</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1320767707778084</v>
+        <v>0.1100081935655461</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03827780696828836</v>
+        <v>0.05276025353258052</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3080343931.822567</v>
+        <v>2599830020.289515</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1486952144637374</v>
+        <v>0.1458934722491486</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03089878597497178</v>
+        <v>0.0263705649261803</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3389355216.470651</v>
+        <v>4063058439.918342</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1464356385095355</v>
+        <v>0.1122900766227946</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04338891898802279</v>
+        <v>0.04977280063575767</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4317844149.739116</v>
+        <v>3174623221.406765</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1701964524263799</v>
+        <v>0.1484804734523962</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02565983768491524</v>
+        <v>0.02758849432273556</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1798237997.640112</v>
+        <v>1405625699.55438</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1021086227345892</v>
+        <v>0.1561224322357563</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05633484646559045</v>
+        <v>0.04346171494019391</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3639553271.469613</v>
+        <v>3054382256.518452</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1134788543330316</v>
+        <v>0.1408394026701314</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02334603189410297</v>
+        <v>0.02707577612419241</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1277670946.38578</v>
+        <v>1460986532.403975</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1281888707554433</v>
+        <v>0.168985895572733</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03014693773548515</v>
+        <v>0.03801957466565592</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4388439183.267207</v>
+        <v>5224857151.351087</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09977025161926652</v>
+        <v>0.1283707440252407</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04288935798509703</v>
+        <v>0.04202150451312802</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2750128465.991756</v>
+        <v>2767827537.578196</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1291974262846814</v>
+        <v>0.1813558617895792</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03226255995569545</v>
+        <v>0.02572660204533145</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3293279188.029213</v>
+        <v>2519718093.790404</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1357088823330204</v>
+        <v>0.1743274250290975</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03034369681290066</v>
+        <v>0.02412291773206617</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1727358554.127924</v>
+        <v>1755577299.960431</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1418733017379748</v>
+        <v>0.1225515341784771</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03724413032762594</v>
+        <v>0.04108837710171032</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5073076034.74684</v>
+        <v>5489989889.387755</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07314002313105269</v>
+        <v>0.1002557369366357</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04773091258626387</v>
+        <v>0.03765944427329973</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5343137007.811701</v>
+        <v>5061517856.715519</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1475033535664205</v>
+        <v>0.1869820064592128</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02347450610522703</v>
+        <v>0.03411826497380142</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4113902727.501055</v>
+        <v>4802618685.811677</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1303685584331561</v>
+        <v>0.137440626081067</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02188198742206949</v>
+        <v>0.02700109291964813</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3962704097.104092</v>
+        <v>4642673839.979366</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1628861517272769</v>
+        <v>0.1613386685951821</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04480825470531461</v>
+        <v>0.04532694857677255</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2803328733.153325</v>
+        <v>2320591184.333338</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07549870297755464</v>
+        <v>0.09374007108770033</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04107582659443577</v>
+        <v>0.04422610626162424</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4505452405.778352</v>
+        <v>4524339342.313634</v>
       </c>
       <c r="F68" t="n">
-        <v>0.133169314520739</v>
+        <v>0.1146241113239738</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03425532344099811</v>
+        <v>0.0337618183335269</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2475903332.995419</v>
+        <v>1546396819.577699</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1412670921990868</v>
+        <v>0.1266765132579602</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05246559886834638</v>
+        <v>0.0416329837046785</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2828620025.131237</v>
+        <v>3610565708.770123</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07375334867151591</v>
+        <v>0.07233694072177614</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03701149522975931</v>
+        <v>0.04266046479043802</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4990563860.693776</v>
+        <v>3397907939.899199</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1860709057655553</v>
+        <v>0.1655117607398959</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03411054695549318</v>
+        <v>0.02935871502936943</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1923101138.711814</v>
+        <v>1590023603.498552</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09352281756848148</v>
+        <v>0.07965122484666776</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04179920961337823</v>
+        <v>0.05291553730626505</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2869831002.381913</v>
+        <v>3040767310.253919</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09656767007548031</v>
+        <v>0.07776440136771087</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03754759953453121</v>
+        <v>0.03626243264194408</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3524224281.123699</v>
+        <v>2520127601.395337</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1533058279502271</v>
+        <v>0.1440440798808559</v>
       </c>
       <c r="G74" t="n">
-        <v>0.024038156593121</v>
+        <v>0.02447045723150899</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1839727100.021785</v>
+        <v>2366892038.216264</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1163994915632716</v>
+        <v>0.1060608825850061</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02765141815021591</v>
+        <v>0.02462183400340467</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4009401030.437002</v>
+        <v>3543263912.099448</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08968576898971892</v>
+        <v>0.1019835966960094</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02221373096449868</v>
+        <v>0.0262421784585405</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1397510752.451619</v>
+        <v>1406582081.094465</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1515257278776106</v>
+        <v>0.1612282644890536</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03065070094498556</v>
+        <v>0.02756616205823901</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4751520235.89746</v>
+        <v>3716761896.533554</v>
       </c>
       <c r="F78" t="n">
-        <v>0.119437082916231</v>
+        <v>0.1290174893141257</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04979771780899762</v>
+        <v>0.03580682762070916</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1421511872.512355</v>
+        <v>1265986434.590347</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1742964690896645</v>
+        <v>0.1593971052011523</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02478999814375805</v>
+        <v>0.03949744527825581</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4499271606.054006</v>
+        <v>3868311456.677537</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07656357258236475</v>
+        <v>0.1092879920362949</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03724367950799252</v>
+        <v>0.02993505085006038</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3730569706.484184</v>
+        <v>3714614251.869354</v>
       </c>
       <c r="F81" t="n">
-        <v>0.104737747341413</v>
+        <v>0.09244923931430885</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02894430070280183</v>
+        <v>0.02584090946154657</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3450892678.890373</v>
+        <v>4930433636.830147</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1778839507877205</v>
+        <v>0.1658785254530016</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02392803903104054</v>
+        <v>0.02668559314819591</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1635183684.845432</v>
+        <v>2456679278.582763</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1449658644991248</v>
+        <v>0.1247618849231842</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04341669726210069</v>
+        <v>0.02975315720387308</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2242792673.80672</v>
+        <v>2265592914.801745</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1052384160578654</v>
+        <v>0.1169831359282772</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03482700674164138</v>
+        <v>0.04053574510631182</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3213266919.601677</v>
+        <v>3657690591.586841</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1402345351737573</v>
+        <v>0.1838036762937812</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03561610396376495</v>
+        <v>0.04186505068428906</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2339478707.565091</v>
+        <v>2299798680.777921</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1483868665865236</v>
+        <v>0.13749463352876</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01687857346880805</v>
+        <v>0.02297443969347693</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1287088652.249951</v>
+        <v>1044599511.002439</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1252943456829053</v>
+        <v>0.1202705970489482</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02853809348957941</v>
+        <v>0.03440379070328113</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2258518826.268271</v>
+        <v>2401341433.59288</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1318385681251955</v>
+        <v>0.1704781684983359</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0271239498304943</v>
+        <v>0.03806505853108865</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2415014487.103603</v>
+        <v>3011843689.778962</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1139128272475192</v>
+        <v>0.1002405486254626</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03783931989921148</v>
+        <v>0.03295606449465505</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2119970892.498356</v>
+        <v>1658739808.794709</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08344600180544534</v>
+        <v>0.09027768446583974</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03413372369460938</v>
+        <v>0.03518603983966401</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1825068699.866516</v>
+        <v>1785295978.953012</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1430991653808359</v>
+        <v>0.1590303940237957</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04948865475456374</v>
+        <v>0.04595181226528915</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2274255942.084963</v>
+        <v>1981261715.859101</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07340387952575086</v>
+        <v>0.0688113453532213</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04677091981630663</v>
+        <v>0.04069232815147426</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4778193306.413102</v>
+        <v>3662827327.175457</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08630675724353946</v>
+        <v>0.09808886658386473</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03987631470494789</v>
+        <v>0.03630978502569714</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2023320495.132591</v>
+        <v>2217822209.865442</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1517045194622264</v>
+        <v>0.1256469738548814</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02983154122583209</v>
+        <v>0.02631813243890286</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2566248136.197393</v>
+        <v>3075163297.942406</v>
       </c>
       <c r="F95" t="n">
-        <v>0.102553522058158</v>
+        <v>0.1376035383839841</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03937158846383996</v>
+        <v>0.04960602177747938</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1911187879.251478</v>
+        <v>1852166898.613805</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1156554207370953</v>
+        <v>0.0885482265419316</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03262730134944087</v>
+        <v>0.03024086865110054</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4515138181.415604</v>
+        <v>4570888247.382931</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1294315558645411</v>
+        <v>0.1102375395958273</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0281570753624848</v>
+        <v>0.01891877021045942</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3082373476.513247</v>
+        <v>2522300773.544855</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1054902641743583</v>
+        <v>0.1206270792781512</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0263410127537016</v>
+        <v>0.02978698098436871</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2256373274.384075</v>
+        <v>2775779468.687753</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1459089020519678</v>
+        <v>0.09066195163576315</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02435800564776021</v>
+        <v>0.02547017865510402</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3276310461.718769</v>
+        <v>4753850475.612692</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1242134556234118</v>
+        <v>0.1226468250213832</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01732711946606295</v>
+        <v>0.02791984968127913</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3587188158.681281</v>
+        <v>2554745639.232477</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1459041101543163</v>
+        <v>0.1611265473215446</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04279129394037492</v>
+        <v>0.03924366703967633</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_219.xlsx
+++ b/output/fit_clients/fit_round_219.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2469659652.785418</v>
+        <v>1599993501.592928</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07909556019656667</v>
+        <v>0.09515529707971264</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03763838989587929</v>
+        <v>0.0372759684091617</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1756940277.453735</v>
+        <v>1815999946.764307</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1671198556369753</v>
+        <v>0.163728502107107</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03461134688216579</v>
+        <v>0.049874226552864</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4833054255.4629</v>
+        <v>4130839817.958169</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1246136331789871</v>
+        <v>0.1169286542730967</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02783425334503671</v>
+        <v>0.0231322874057098</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>119</v>
+      </c>
+      <c r="J4" t="n">
+        <v>219</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4096564639.180418</v>
+        <v>4184096689.947227</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1042911813810973</v>
+        <v>0.1105398706679644</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03710040402981366</v>
+        <v>0.04441265834437365</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>89</v>
+      </c>
+      <c r="J5" t="n">
+        <v>219</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2455839789.800133</v>
+        <v>2345729375.372823</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1213254268243967</v>
+        <v>0.09774243515119101</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05299023573227486</v>
+        <v>0.04915879812016995</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2048775394.00301</v>
+        <v>3063398517.022657</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09937217227996434</v>
+        <v>0.08991699233657809</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03696597057030163</v>
+        <v>0.03839821567903483</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3592237913.196385</v>
+        <v>3089089980.007123</v>
       </c>
       <c r="F8" t="n">
-        <v>0.206973406378528</v>
+        <v>0.1852728308837858</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02722023805596418</v>
+        <v>0.02827023687751347</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>61</v>
+      </c>
+      <c r="J8" t="n">
+        <v>214</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1875273128.72709</v>
+        <v>1842609685.936079</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1510262392029149</v>
+        <v>0.1352740773015986</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03676144193668834</v>
+        <v>0.02346272062056733</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4945406672.642556</v>
+        <v>3950800104.029071</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1651283431046326</v>
+        <v>0.1800372240992626</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04145747063480291</v>
+        <v>0.03541587319745892</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>200</v>
+      </c>
+      <c r="J10" t="n">
+        <v>219</v>
+      </c>
+      <c r="K10" t="n">
+        <v>120.3450820137402</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4068344052.071678</v>
+        <v>3770248885.567928</v>
       </c>
       <c r="F11" t="n">
-        <v>0.185212199685636</v>
+        <v>0.1454698959851412</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04044256284305291</v>
+        <v>0.04494432912067702</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>92</v>
+      </c>
+      <c r="J11" t="n">
+        <v>219</v>
+      </c>
+      <c r="K11" t="n">
+        <v>122.0174613117047</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2349041952.571779</v>
+        <v>3301954792.990666</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1586739203092498</v>
+        <v>0.1218030186488812</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05316987682443517</v>
+        <v>0.04793416386658108</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3434929603.330617</v>
+        <v>4085342943.949478</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09876679510910083</v>
+        <v>0.08862106949068818</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02670404517015157</v>
+        <v>0.02487821587932736</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>110</v>
+      </c>
+      <c r="J13" t="n">
+        <v>219</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3021446144.825996</v>
+        <v>2726778731.412655</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1368503570610023</v>
+        <v>0.1343039131750923</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03136351933312564</v>
+        <v>0.03439443862345009</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>212</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1217316068.073306</v>
+        <v>1609089383.209317</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08163682365143921</v>
+        <v>0.06623420643119717</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04605220665200389</v>
+        <v>0.04701601672564398</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2026905120.47488</v>
+        <v>2256716279.514156</v>
       </c>
       <c r="F16" t="n">
-        <v>0.10354735065282</v>
+        <v>0.08760172159962684</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04919741012694997</v>
+        <v>0.03663505412665103</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5133842645.44996</v>
+        <v>5086568403.293049</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1130146594425117</v>
+        <v>0.13274815940879</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04971269713741387</v>
+        <v>0.04285849911358067</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>105</v>
+      </c>
+      <c r="J17" t="n">
+        <v>219</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2702463114.008986</v>
+        <v>2946031267.201852</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1827111416312529</v>
+        <v>0.1847819233620621</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02557477891128144</v>
+        <v>0.02200360210506592</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>57</v>
+      </c>
+      <c r="J18" t="n">
+        <v>217</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1183476417.336342</v>
+        <v>899049711.0784733</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1474732962840809</v>
+        <v>0.1831826470042158</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01670570998052466</v>
+        <v>0.01840119953404588</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2124447303.435714</v>
+        <v>1997408169.825174</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1176342325689602</v>
+        <v>0.1338649597242136</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0214030746557556</v>
+        <v>0.02118017135427936</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2460274485.24203</v>
+        <v>2637286025.426804</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07039406573771434</v>
+        <v>0.09846143165673364</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04005421768574117</v>
+        <v>0.0318185213856152</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1199,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3320568145.963449</v>
+        <v>3723120625.573214</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1382659905911312</v>
+        <v>0.1299983722486663</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05232273623790304</v>
+        <v>0.03733662733047437</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>56</v>
+      </c>
+      <c r="J22" t="n">
+        <v>218</v>
+      </c>
+      <c r="K22" t="n">
+        <v>104.6906827053696</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1294674935.108588</v>
+        <v>935854955.8274384</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1384755270816369</v>
+        <v>0.1492186783831098</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04223553992349668</v>
+        <v>0.04993935732066497</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2929231333.745441</v>
+        <v>3626777309.840381</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1448839569569687</v>
+        <v>0.1043996743457965</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03542664166196254</v>
+        <v>0.02849534941916541</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>69</v>
+      </c>
+      <c r="J24" t="n">
+        <v>218</v>
+      </c>
+      <c r="K24" t="n">
+        <v>99.29920418865623</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>910325266.2451876</v>
+        <v>1258878001.389447</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09469406751199939</v>
+        <v>0.1167470420717532</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02939644101122284</v>
+        <v>0.02414204874632562</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1078545632.554433</v>
+        <v>921053847.1617609</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1201488478875239</v>
+        <v>0.1032129020558221</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03847602565758842</v>
+        <v>0.03758526130544726</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3987614402.155149</v>
+        <v>3123244326.863888</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1566469524511147</v>
+        <v>0.1201380922922188</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01777223754324652</v>
+        <v>0.02395256005361676</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>87</v>
+      </c>
+      <c r="J27" t="n">
+        <v>218</v>
+      </c>
+      <c r="K27" t="n">
+        <v>68.94477192794749</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3732722092.374175</v>
+        <v>3375646089.479611</v>
       </c>
       <c r="F28" t="n">
-        <v>0.139495676793606</v>
+        <v>0.1474909377952754</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03140426474539305</v>
+        <v>0.03471758627540918</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>45</v>
+      </c>
+      <c r="J28" t="n">
+        <v>218</v>
+      </c>
+      <c r="K28" t="n">
+        <v>93.61290324784783</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4498562529.774017</v>
+        <v>3774186202.360748</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1252367075643383</v>
+        <v>0.09729690136506473</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02982602401123768</v>
+        <v>0.02919924830886917</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>208</v>
+      </c>
+      <c r="J29" t="n">
+        <v>219</v>
+      </c>
+      <c r="K29" t="n">
+        <v>126.9544399596862</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1522067038.860071</v>
+        <v>2068978612.714921</v>
       </c>
       <c r="F30" t="n">
-        <v>0.101668763833035</v>
+        <v>0.09712413341393353</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02564014713578435</v>
+        <v>0.03078489456024058</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1184037648.980334</v>
+        <v>1451036354.72482</v>
       </c>
       <c r="F31" t="n">
-        <v>0.101901350510325</v>
+        <v>0.08744079194616734</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0347212064048261</v>
+        <v>0.05114532865082745</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1723028552.723803</v>
+        <v>1218288325.259017</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1183147365043791</v>
+        <v>0.1030096281865384</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02758742033522762</v>
+        <v>0.03660966593563191</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2967752222.705025</v>
+        <v>2317416860.813308</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1697033219912623</v>
+        <v>0.1639031603415413</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04553167423684668</v>
+        <v>0.05629674965238011</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1198001296.672387</v>
+        <v>1481098181.098916</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07448621175176995</v>
+        <v>0.1155261907165967</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01840735676899486</v>
+        <v>0.02102960137862939</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1329063385.8446</v>
+        <v>1365817294.228851</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1103858661045438</v>
+        <v>0.09618340028907665</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04325936918543262</v>
+        <v>0.029690429854166</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2320733171.442815</v>
+        <v>2485449796.593502</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1789062797480837</v>
+        <v>0.1525570001855117</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02711365759492575</v>
+        <v>0.01767153974154257</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2467959119.653077</v>
+        <v>2549662390.581728</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07300321119282308</v>
+        <v>0.1053613650406075</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04137176743623894</v>
+        <v>0.03404318409817784</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1538898720.39388</v>
+        <v>1793165585.96224</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1194457031544298</v>
+        <v>0.08121453527857708</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02786944674562191</v>
+        <v>0.03009469678167864</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1928472192.881755</v>
+        <v>1864920408.772861</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1372268715503363</v>
+        <v>0.1422171236268497</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02059244888596751</v>
+        <v>0.02877451356707705</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1341795936.644103</v>
+        <v>1493061917.447197</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1396066652540933</v>
+        <v>0.1058833485448056</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04222103888386242</v>
+        <v>0.04525393104661497</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1855064852.606236</v>
+        <v>2420421334.140916</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1410691175408487</v>
+        <v>0.1536045558148407</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03911710891800078</v>
+        <v>0.04018418372490257</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1915,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3203057062.445825</v>
+        <v>3136568235.886156</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09269723967834673</v>
+        <v>0.08772918533345672</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03926813445786173</v>
+        <v>0.02870207003850204</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>87</v>
+      </c>
+      <c r="J42" t="n">
+        <v>218</v>
+      </c>
+      <c r="K42" t="n">
+        <v>84.98703955020937</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2582499213.731129</v>
+        <v>1982557664.49388</v>
       </c>
       <c r="F43" t="n">
-        <v>0.176253255233894</v>
+        <v>0.145322777306367</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01565208009290268</v>
+        <v>0.02319574863883974</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1835836331.172448</v>
+        <v>2081204800.753155</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1017997942284907</v>
+        <v>0.06804513789228936</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02685096949033806</v>
+        <v>0.02506783069482109</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1983237679.258566</v>
+        <v>2537848532.747074</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1459248847262614</v>
+        <v>0.1787767879529795</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04268572401287265</v>
+        <v>0.0395980925617254</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5374934019.51789</v>
+        <v>3502726597.629687</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1735675625539506</v>
+        <v>0.158191191037364</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05715475140918229</v>
+        <v>0.04107142915089249</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>125</v>
+      </c>
+      <c r="J46" t="n">
+        <v>218</v>
+      </c>
+      <c r="K46" t="n">
+        <v>101.5392028988572</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4340249775.801802</v>
+        <v>3851519433.419334</v>
       </c>
       <c r="F47" t="n">
-        <v>0.127087959677347</v>
+        <v>0.1441261266278316</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04448833585619951</v>
+        <v>0.03953152556144555</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>98</v>
+      </c>
+      <c r="J47" t="n">
+        <v>219</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4593180438.185925</v>
+        <v>4262591592.415299</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08613373470411681</v>
+        <v>0.1069844564852935</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02979218804092629</v>
+        <v>0.02812249150058335</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>108</v>
+      </c>
+      <c r="J48" t="n">
+        <v>219</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1288738850.523732</v>
+        <v>1454860285.563558</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1673939543661508</v>
+        <v>0.151111993741007</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03158850042431549</v>
+        <v>0.03013119320638405</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2637399089.125641</v>
+        <v>3804714541.312168</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1405720864496026</v>
+        <v>0.1377149372913852</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05080225919425461</v>
+        <v>0.04031272576055709</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>70</v>
+      </c>
+      <c r="J50" t="n">
+        <v>219</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1354339979.072057</v>
+        <v>1056908794.169945</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1724383174573355</v>
+        <v>0.1545478117496952</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04403429832552268</v>
+        <v>0.04393202345959217</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2269,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3524260780.224733</v>
+        <v>3440207123.252744</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1100081935655461</v>
+        <v>0.1038276031272562</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05276025353258052</v>
+        <v>0.04701031833420265</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>147</v>
+      </c>
+      <c r="J52" t="n">
+        <v>218</v>
+      </c>
+      <c r="K52" t="n">
+        <v>95.54291133129121</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2599830020.289515</v>
+        <v>2813821048.259575</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1458934722491486</v>
+        <v>0.1717500987390729</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0263705649261803</v>
+        <v>0.03259060205798844</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>29</v>
+      </c>
+      <c r="J53" t="n">
+        <v>217</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4063058439.918342</v>
+        <v>3901275086.413507</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1122900766227946</v>
+        <v>0.1657816185847037</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04977280063575767</v>
+        <v>0.03952461489824656</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>116</v>
+      </c>
+      <c r="J54" t="n">
+        <v>218</v>
+      </c>
+      <c r="K54" t="n">
+        <v>114.9588337040889</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3174623221.406765</v>
+        <v>4276706906.156139</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1484804734523962</v>
+        <v>0.1492369402674954</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02758849432273556</v>
+        <v>0.02461733070246393</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>98</v>
+      </c>
+      <c r="J55" t="n">
+        <v>219</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1405625699.55438</v>
+        <v>1818092808.904338</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1561224322357563</v>
+        <v>0.1103940131668917</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04346171494019391</v>
+        <v>0.04758781010884762</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3054382256.518452</v>
+        <v>2786004934.160591</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1408394026701314</v>
+        <v>0.1587409392470602</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02707577612419241</v>
+        <v>0.02223397097466935</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>85</v>
+      </c>
+      <c r="J57" t="n">
+        <v>216</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1460986532.403975</v>
+        <v>1869343093.185908</v>
       </c>
       <c r="F58" t="n">
-        <v>0.168985895572733</v>
+        <v>0.1898000795363384</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03801957466565592</v>
+        <v>0.03715960220990881</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5224857151.351087</v>
+        <v>4913412650.973269</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1283707440252407</v>
+        <v>0.1172311536598684</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04202150451312802</v>
+        <v>0.04287552999119387</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>106</v>
+      </c>
+      <c r="J59" t="n">
+        <v>218</v>
+      </c>
+      <c r="K59" t="n">
+        <v>104.5124937993393</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2767827537.578196</v>
+        <v>3662155515.817419</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1813558617895792</v>
+        <v>0.1807432744899291</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02572660204533145</v>
+        <v>0.02129916480800705</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>31</v>
+      </c>
+      <c r="J60" t="n">
+        <v>219</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2519718093.790404</v>
+        <v>2943729658.180786</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1743274250290975</v>
+        <v>0.1613675089810298</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02412291773206617</v>
+        <v>0.02579862371916351</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1755577299.960431</v>
+        <v>1854604785.649189</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1225515341784771</v>
+        <v>0.1771011427833918</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04108837710171032</v>
+        <v>0.04097331547353138</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5489989889.387755</v>
+        <v>4821369841.403178</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1002557369366357</v>
+        <v>0.07134553753291012</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03765944427329973</v>
+        <v>0.03116929900039129</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>106</v>
+      </c>
+      <c r="J63" t="n">
+        <v>219</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5061517856.715519</v>
+        <v>4038026212.688842</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1869820064592128</v>
+        <v>0.153421747864887</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03411826497380142</v>
+        <v>0.03041119700892943</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>108</v>
+      </c>
+      <c r="J64" t="n">
+        <v>218</v>
+      </c>
+      <c r="K64" t="n">
+        <v>108.9397182243927</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4802618685.811677</v>
+        <v>3638622853.338377</v>
       </c>
       <c r="F65" t="n">
-        <v>0.137440626081067</v>
+        <v>0.1448406610953292</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02700109291964813</v>
+        <v>0.02058791002838919</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>174</v>
+      </c>
+      <c r="J65" t="n">
+        <v>217</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4642673839.979366</v>
+        <v>5495357760.84727</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1613386685951821</v>
+        <v>0.1482738197682121</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04532694857677255</v>
+        <v>0.03918956402232947</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>108</v>
+      </c>
+      <c r="J66" t="n">
+        <v>218</v>
+      </c>
+      <c r="K66" t="n">
+        <v>104.0648341565168</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2320591184.333338</v>
+        <v>2845090161.836916</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09374007108770033</v>
+        <v>0.06712338879411732</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04422610626162424</v>
+        <v>0.04252612598702255</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4524339342.313634</v>
+        <v>4915450910.111166</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1146241113239738</v>
+        <v>0.1261489277910517</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0337618183335269</v>
+        <v>0.03727513925257912</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>110</v>
+      </c>
+      <c r="J68" t="n">
+        <v>219</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1546396819.577699</v>
+        <v>2293671710.436768</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1266765132579602</v>
+        <v>0.1321526676608873</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0416329837046785</v>
+        <v>0.05189007626280844</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3610565708.770123</v>
+        <v>3568398844.07722</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07233694072177614</v>
+        <v>0.08316191032044334</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04266046479043802</v>
+        <v>0.04925855332392043</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3397907939.899199</v>
+        <v>5394269954.538159</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1655117607398959</v>
+        <v>0.1577064758203882</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02935871502936943</v>
+        <v>0.02598724502781791</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>167</v>
+      </c>
+      <c r="J71" t="n">
+        <v>219</v>
+      </c>
+      <c r="K71" t="n">
+        <v>115.5420564022192</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1590023603.498552</v>
+        <v>2182640489.314438</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07965122484666776</v>
+        <v>0.06610473135015134</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05291553730626505</v>
+        <v>0.03462268170505289</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3040767310.253919</v>
+        <v>2566997838.926213</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07776440136771087</v>
+        <v>0.08135006792745877</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03626243264194408</v>
+        <v>0.04907122641906806</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3051,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2520127601.395337</v>
+        <v>2922916453.524803</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1440440798808559</v>
+        <v>0.1680362767377225</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02447045723150899</v>
+        <v>0.0327430469810007</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>64</v>
+      </c>
+      <c r="J74" t="n">
+        <v>218</v>
+      </c>
+      <c r="K74" t="n">
+        <v>73.51603917376073</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2366892038.216264</v>
+        <v>2356021861.996737</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1060608825850061</v>
+        <v>0.1326261434422263</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02462183400340467</v>
+        <v>0.02829805912186458</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3543263912.099448</v>
+        <v>4339281454.760608</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1019835966960094</v>
+        <v>0.08991961305882809</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0262421784585405</v>
+        <v>0.03060026024873204</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>101</v>
+      </c>
+      <c r="J76" t="n">
+        <v>218</v>
+      </c>
+      <c r="K76" t="n">
+        <v>98.74481994562487</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1406582081.094465</v>
+        <v>1919209732.454446</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1612282644890536</v>
+        <v>0.1360782192096732</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02756616205823901</v>
+        <v>0.02225203249785085</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3716761896.533554</v>
+        <v>3909272280.142118</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1290174893141257</v>
+        <v>0.1011857232566157</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03580682762070916</v>
+        <v>0.04426359154217015</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>109</v>
+      </c>
+      <c r="J78" t="n">
+        <v>219</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1265986434.590347</v>
+        <v>1554369333.01557</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1593971052011523</v>
+        <v>0.1082785422720005</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03949744527825581</v>
+        <v>0.03029784843131942</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3868311456.677537</v>
+        <v>3915616038.269158</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1092879920362949</v>
+        <v>0.1015908659441433</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02993505085006038</v>
+        <v>0.03216663323741763</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>106</v>
+      </c>
+      <c r="J80" t="n">
+        <v>219</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3714614251.869354</v>
+        <v>4864944633.118329</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09244923931430885</v>
+        <v>0.1156458892652592</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02584090946154657</v>
+        <v>0.02841758399421952</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>100</v>
+      </c>
+      <c r="J81" t="n">
+        <v>219</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4930433636.830147</v>
+        <v>4800391191.203779</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1658785254530016</v>
+        <v>0.205319235064419</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02668559314819591</v>
+        <v>0.02218560437427233</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>163</v>
+      </c>
+      <c r="J82" t="n">
+        <v>219</v>
+      </c>
+      <c r="K82" t="n">
+        <v>119.1298469912736</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2456679278.582763</v>
+        <v>1579766699.310689</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1247618849231842</v>
+        <v>0.1391405484615602</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02975315720387308</v>
+        <v>0.04212530482946669</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2265592914.801745</v>
+        <v>1602121124.614751</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1169831359282772</v>
+        <v>0.07771045070586576</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04053574510631182</v>
+        <v>0.04021149358625774</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3657690591.586841</v>
+        <v>2889604112.153706</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1838036762937812</v>
+        <v>0.1480942403967565</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04186505068428906</v>
+        <v>0.04536715939261922</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2299798680.777921</v>
+        <v>2774930671.12312</v>
       </c>
       <c r="F86" t="n">
-        <v>0.13749463352876</v>
+        <v>0.1092501452266307</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02297443969347693</v>
+        <v>0.02214619911302394</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1044599511.002439</v>
+        <v>1202719401.702627</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1202705970489482</v>
+        <v>0.1677068391291781</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03440379070328113</v>
+        <v>0.02836171358641084</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2401341433.59288</v>
+        <v>3295973790.127121</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1704781684983359</v>
+        <v>0.1129589475486262</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03806505853108865</v>
+        <v>0.02519457932515411</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3011843689.778962</v>
+        <v>3451378285.705443</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1002405486254626</v>
+        <v>0.1406618498154092</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03295606449465505</v>
+        <v>0.038480407139545</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>214</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1658739808.794709</v>
+        <v>1476976186.283805</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09027768446583974</v>
+        <v>0.1382202107339441</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03518603983966401</v>
+        <v>0.04726222178205024</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1785295978.953012</v>
+        <v>1906187638.790297</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1590303940237957</v>
+        <v>0.181467281896774</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04595181226528915</v>
+        <v>0.04259497847054142</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1981261715.859101</v>
+        <v>2672748217.734154</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0688113453532213</v>
+        <v>0.07984425309621185</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04069232815147426</v>
+        <v>0.04021595649030809</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3662827327.175457</v>
+        <v>3248481824.569663</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09808886658386473</v>
+        <v>0.1109773501550255</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03630978502569714</v>
+        <v>0.05147665659662023</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>98</v>
+      </c>
+      <c r="J93" t="n">
+        <v>218</v>
+      </c>
+      <c r="K93" t="n">
+        <v>83.16838956917573</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2217822209.865442</v>
+        <v>2195793574.950837</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1256469738548814</v>
+        <v>0.1152669310204834</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02631813243890286</v>
+        <v>0.03922290688386174</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3075163297.942406</v>
+        <v>3086060461.960301</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1376035383839841</v>
+        <v>0.09984216322529887</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04960602177747938</v>
+        <v>0.03635180868351585</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1852166898.613805</v>
+        <v>1838131136.627149</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0885482265419316</v>
+        <v>0.1290445051235999</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03024086865110054</v>
+        <v>0.03980910624836335</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4570888247.382931</v>
+        <v>3426071630.836135</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1102375395958273</v>
+        <v>0.117946241570466</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01891877021045942</v>
+        <v>0.0222686443627209</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>106</v>
+      </c>
+      <c r="J97" t="n">
+        <v>218</v>
+      </c>
+      <c r="K97" t="n">
+        <v>95.21894650131166</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2522300773.544855</v>
+        <v>3071302298.284494</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1206270792781512</v>
+        <v>0.1094960311344275</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02978698098436871</v>
+        <v>0.02831838790042516</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2775779468.687753</v>
+        <v>2878971142.979182</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09066195163576315</v>
+        <v>0.1412687314948483</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02547017865510402</v>
+        <v>0.03321239057314074</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4753850475.612692</v>
+        <v>4406079067.869371</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1226468250213832</v>
+        <v>0.1644379893275035</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02791984968127913</v>
+        <v>0.01941694959801172</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>91</v>
+      </c>
+      <c r="J100" t="n">
+        <v>219</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2554745639.232477</v>
+        <v>3136943929.248611</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1611265473215446</v>
+        <v>0.1749877345792176</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03924366703967633</v>
+        <v>0.0543913321899982</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
